--- a/PROGRAMMAZIONE/performances/Relazione Performances/2020 relazione performance tab e figure/progetti2020.xlsx
+++ b/PROGRAMMAZIONE/performances/Relazione Performances/2020 relazione performance tab e figure/progetti2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vito.tranquillo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vito.tranquillo\Desktop\GitProjects\IZSLER-COGES\PROGRAMMAZIONE\performances\Relazione Performances\2020 relazione performance tab e figure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D7A2E90-59FD-470E-886E-10F779096B21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63037691-2A3B-4DF2-BB30-5A8C0654E2E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/PROGRAMMAZIONE/performances/Relazione Performances/2020 relazione performance tab e figure/progetti2020.xlsx
+++ b/PROGRAMMAZIONE/performances/Relazione Performances/2020 relazione performance tab e figure/progetti2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vito.tranquillo\Desktop\GitProjects\IZSLER-COGES\PROGRAMMAZIONE\performances\Relazione Performances\2020 relazione performance tab e figure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63037691-2A3B-4DF2-BB30-5A8C0654E2E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F92839A-8F46-45A2-8D7B-2601CAC182D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Tipologia</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>Conclusi</t>
-  </si>
-  <si>
-    <t>Totale</t>
   </si>
 </sst>
 </file>
@@ -445,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,7 +453,7 @@
     <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,11 +466,8 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -486,11 +480,8 @@
       <c r="D2">
         <v>14</v>
       </c>
-      <c r="E2">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -503,11 +494,8 @@
       <c r="D3">
         <v>8</v>
       </c>
-      <c r="E3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -520,11 +508,8 @@
       <c r="D4">
         <v>4</v>
       </c>
-      <c r="E4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -537,11 +522,8 @@
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -554,11 +536,8 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -571,11 +550,8 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -588,11 +564,8 @@
       <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -605,31 +578,8 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>113</v>
-      </c>
-      <c r="C10">
-        <v>31</v>
-      </c>
-      <c r="D10">
-        <v>34</v>
-      </c>
-      <c r="E10">
-        <v>178</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E9">
-    <sortCondition descending="1" ref="E2:E9"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>